--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H2">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>2105.716417767319</v>
+        <v>136.2169836780302</v>
       </c>
       <c r="R2">
-        <v>18951.44775990587</v>
+        <v>1225.952853102272</v>
       </c>
       <c r="S2">
-        <v>0.02239312829534462</v>
+        <v>0.001994300458775138</v>
       </c>
       <c r="T2">
-        <v>0.02239312829534463</v>
+        <v>0.001994300458775137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H3">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>30124.75087248411</v>
+        <v>11886.54763625945</v>
       </c>
       <c r="R3">
-        <v>271122.757852357</v>
+        <v>106978.9287263351</v>
       </c>
       <c r="S3">
-        <v>0.3203600472793451</v>
+        <v>0.1740263714859227</v>
       </c>
       <c r="T3">
-        <v>0.3203600472793452</v>
+        <v>0.1740263714859226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H4">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>4608.130694869892</v>
+        <v>1818.26449787213</v>
       </c>
       <c r="R4">
-        <v>41473.17625382902</v>
+        <v>16364.38048084917</v>
       </c>
       <c r="S4">
-        <v>0.04900491869714792</v>
+        <v>0.02662051107262759</v>
       </c>
       <c r="T4">
-        <v>0.04900491869714793</v>
+        <v>0.02662051107262758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J5">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>2614.485183248331</v>
+        <v>428.6326900641671</v>
       </c>
       <c r="R5">
-        <v>23530.36664923498</v>
+        <v>3857.694210577504</v>
       </c>
       <c r="S5">
-        <v>0.02780360244179226</v>
+        <v>0.006275446330991251</v>
       </c>
       <c r="T5">
-        <v>0.02780360244179226</v>
+        <v>0.00627544633099125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J6">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>37403.28666319968</v>
@@ -818,10 +818,10 @@
         <v>336629.5799687971</v>
       </c>
       <c r="S6">
-        <v>0.3977632457292902</v>
+        <v>0.5476071319302596</v>
       </c>
       <c r="T6">
-        <v>0.3977632457292903</v>
+        <v>0.5476071319302594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J7">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>5721.515643109954</v>
@@ -880,10 +880,10 @@
         <v>51493.64078798959</v>
       </c>
       <c r="S7">
-        <v>0.06084515120788686</v>
+        <v>0.0837665096073012</v>
       </c>
       <c r="T7">
-        <v>0.06084515120788687</v>
+        <v>0.08376650960730118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>654.8409279235981</v>
+        <v>107.3581255301942</v>
       </c>
       <c r="R8">
-        <v>5893.568351312383</v>
+        <v>966.2231297717481</v>
       </c>
       <c r="S8">
-        <v>0.006963870722717617</v>
+        <v>0.001571789017911113</v>
       </c>
       <c r="T8">
-        <v>0.006963870722717619</v>
+        <v>0.001571789017911112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>9368.269938133966</v>
@@ -1004,10 +1004,10 @@
         <v>84314.42944320571</v>
       </c>
       <c r="S9">
-        <v>0.09962636414854381</v>
+        <v>0.1371572364258952</v>
       </c>
       <c r="T9">
-        <v>0.09962636414854383</v>
+        <v>0.1371572364258952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>1433.047942619621</v>
@@ -1066,10 +1066,10 @@
         <v>12897.43148357659</v>
       </c>
       <c r="S10">
-        <v>0.01523967147793156</v>
+        <v>0.0209807036703164</v>
       </c>
       <c r="T10">
-        <v>0.01523967147793156</v>
+        <v>0.0209807036703164</v>
       </c>
     </row>
   </sheetData>
